--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c205_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c205_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3160" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +402,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +449,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +495,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -650,10 +662,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -697,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="2">
+      <c r="C20" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -743,28 +755,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -939,10 +951,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -986,28 +998,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="2">
+      <c r="C30" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1032,28 +1044,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1141,10 +1153,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="2" t="s">
+      <c r="J35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1188,28 +1200,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="2">
+      <c r="A37" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="2">
+      <c r="C37" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1234,28 +1246,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="2">
+      <c r="C39" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="2">
+      <c r="D39" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="2">
+      <c r="I39" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1488,10 +1500,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2" t="s">
+      <c r="J47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1535,28 +1547,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="2">
+      <c r="C49" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1581,28 +1593,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1661,10 +1673,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="2" t="s">
+      <c r="J53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1708,28 +1720,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="2">
+      <c r="C55" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1754,28 +1766,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1979,10 +1991,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2026,28 +2038,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2072,28 +2084,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2210,10 +2222,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="2" t="s">
+      <c r="J72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2257,28 +2269,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="2">
+      <c r="C74" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2303,28 +2315,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2470,10 +2482,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="J81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2517,28 +2529,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2">
+      <c r="A83" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="2">
+      <c r="C83" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2563,28 +2575,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="2">
+      <c r="I85" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2759,10 +2771,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2806,28 +2818,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2852,28 +2864,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2990,10 +3002,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3037,28 +3049,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3083,28 +3095,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3192,10 +3204,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3239,28 +3251,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3285,28 +3297,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3452,10 +3464,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="2" t="s">
+      <c r="J115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3499,28 +3511,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="2">
+      <c r="C117" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3545,28 +3557,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3654,10 +3666,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3701,28 +3713,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3747,28 +3759,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3827,10 +3839,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="2" t="s">
+      <c r="J128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3874,28 +3886,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="2">
+      <c r="C130" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3920,28 +3932,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4029,10 +4041,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4076,28 +4088,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4122,28 +4134,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4289,10 +4301,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4336,28 +4348,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4382,28 +4394,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4462,10 +4474,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4509,28 +4521,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4555,28 +4567,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4664,10 +4676,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4711,28 +4723,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4757,28 +4769,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4895,10 +4907,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="2" t="s">
+      <c r="J165" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4942,28 +4954,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="2">
+      <c r="A167" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="2">
+      <c r="C167" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4988,28 +5000,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="2">
+      <c r="I169" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5068,10 +5080,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="2" t="s">
+      <c r="J171" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5115,28 +5127,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="2">
+      <c r="A173" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="2">
+      <c r="C173" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5161,28 +5173,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="2">
+      <c r="I175" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5270,10 +5282,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="2" t="s">
+      <c r="J178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5317,28 +5329,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="2">
+      <c r="C180" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5363,28 +5375,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5472,10 +5484,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5519,28 +5531,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5565,28 +5577,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5645,10 +5657,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5692,28 +5704,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5738,28 +5750,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5847,10 +5859,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="2" t="s">
+      <c r="J198" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5894,28 +5906,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="2">
+      <c r="A200" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="2">
+      <c r="C200" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5940,28 +5952,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="C202" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="2">
+      <c r="I202" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6049,10 +6061,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="2" t="s">
+      <c r="J205" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6096,28 +6108,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="2">
+      <c r="A207" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="2">
+      <c r="C207" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6142,28 +6154,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="2">
+      <c r="C209" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="2">
+      <c r="D209" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="2">
+      <c r="I209" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6222,10 +6234,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6269,28 +6281,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="2">
+      <c r="A213" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="2">
+      <c r="C213" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6315,28 +6327,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="2">
+      <c r="C215" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="2">
+      <c r="D215" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="2">
+      <c r="I215" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6424,10 +6436,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="2" t="s">
+      <c r="J218" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6471,28 +6483,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="2">
+      <c r="A220" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="2">
+      <c r="C220" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6517,28 +6529,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="2">
+      <c r="C222" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="2">
+      <c r="D222" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="2">
+      <c r="I222" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6626,10 +6638,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="2" t="s">
+      <c r="J225" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6673,28 +6685,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="2">
+      <c r="A227" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="2">
+      <c r="C227" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6719,28 +6731,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="2">
+      <c r="C229" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="2">
+      <c r="D229" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="2">
+      <c r="I229" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6799,10 +6811,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="2" t="s">
+      <c r="J231" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6846,28 +6858,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="2">
+      <c r="A233" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="2">
+      <c r="C233" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6892,28 +6904,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="2">
+      <c r="C235" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="2">
+      <c r="D235" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="2">
+      <c r="I235" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6972,10 +6984,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="2" t="s">
+      <c r="J237" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7019,28 +7031,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="2">
+      <c r="A239" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="2">
+      <c r="C239" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7065,28 +7077,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="2">
+      <c r="C241" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="2">
+      <c r="D241" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="2">
+      <c r="I241" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7174,10 +7186,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="2" t="s">
+      <c r="J244" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7221,28 +7233,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="2">
+      <c r="A246" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="2">
+      <c r="C246" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7267,28 +7279,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="2">
+      <c r="C248" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="2">
+      <c r="D248" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="2">
+      <c r="I248" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7347,10 +7359,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="2" t="s">
+      <c r="J250" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7394,28 +7406,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
+      <c r="A252" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="2">
+      <c r="C252" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7440,28 +7452,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="2">
+      <c r="C254" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="2">
+      <c r="D254" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="2">
+      <c r="I254" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7578,10 +7590,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="2" t="s">
+      <c r="J258" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7625,28 +7637,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="2">
+      <c r="A260" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="2">
+      <c r="C260" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7671,28 +7683,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="2">
+      <c r="C262" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="2">
+      <c r="D262" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="2">
+      <c r="I262" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7751,10 +7763,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="2" t="s">
+      <c r="J264" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7798,28 +7810,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="2">
+      <c r="A266" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="2">
+      <c r="C266" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7844,28 +7856,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="2">
+      <c r="C268" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="2">
+      <c r="D268" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="2">
+      <c r="I268" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7953,10 +7965,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="2" t="s">
+      <c r="J271" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
@@ -8000,28 +8012,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="2">
+      <c r="A273" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B273" t="s" s="2">
+      <c r="B273" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C273" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D273" t="s" s="2">
+      <c r="C273" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D273" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E273" t="s" s="2">
+      <c r="E273" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F273" t="s" s="2">
+      <c r="F273" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G273" t="s" s="2">
+      <c r="G273" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H273" t="s" s="2">
+      <c r="H273" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8046,28 +8058,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C275" t="s" s="2">
+      <c r="C275" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D275" t="s" s="2">
+      <c r="D275" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I275" t="s" s="2">
+      <c r="I275" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8126,10 +8138,10 @@
       <c r="I277">
         <f>((C277-C276)^2+(D277- D276)^2)^.5</f>
       </c>
-      <c r="J277" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K277" s="2" t="s">
+      <c r="J277" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K277" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L277" t="n">
@@ -8173,28 +8185,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="2">
+      <c r="A279" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B279" t="s" s="2">
+      <c r="B279" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C279" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D279" t="s" s="2">
+      <c r="C279" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E279" t="s" s="2">
+      <c r="E279" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F279" t="s" s="2">
+      <c r="F279" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G279" t="s" s="2">
+      <c r="G279" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H279" t="s" s="2">
+      <c r="H279" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8219,28 +8231,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C281" t="s" s="2">
+      <c r="C281" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D281" t="s" s="2">
+      <c r="D281" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I281" t="s" s="2">
+      <c r="I281" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8299,10 +8311,10 @@
       <c r="I283">
         <f>((C283-C282)^2+(D283- D282)^2)^.5</f>
       </c>
-      <c r="J283" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K283" s="2" t="s">
+      <c r="J283" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K283" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L283" t="n">
@@ -8346,28 +8358,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="s" s="2">
+      <c r="A285" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C285" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D285" t="s" s="2">
+      <c r="C285" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D285" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8392,28 +8404,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C287" t="s" s="2">
+      <c r="C287" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D287" t="s" s="2">
+      <c r="D287" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I287" t="s" s="2">
+      <c r="I287" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8472,10 +8484,10 @@
       <c r="I289">
         <f>((C289-C288)^2+(D289- D288)^2)^.5</f>
       </c>
-      <c r="J289" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K289" s="2" t="s">
+      <c r="J289" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K289" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L289" t="n">
@@ -8519,28 +8531,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="s" s="2">
+      <c r="A291" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B291" t="s" s="2">
+      <c r="B291" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C291" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D291" t="s" s="2">
+      <c r="C291" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D291" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E291" t="s" s="2">
+      <c r="E291" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F291" t="s" s="2">
+      <c r="F291" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G291" t="s" s="2">
+      <c r="G291" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H291" t="s" s="2">
+      <c r="H291" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8565,28 +8577,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="B293" t="s" s="2">
+      <c r="B293" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C293" t="s" s="2">
+      <c r="C293" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D293" t="s" s="2">
+      <c r="D293" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E293" t="s" s="2">
+      <c r="E293" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F293" t="s" s="2">
+      <c r="F293" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G293" t="s" s="2">
+      <c r="G293" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H293" t="s" s="2">
+      <c r="H293" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I293" t="s" s="2">
+      <c r="I293" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8674,10 +8686,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="2" t="s">
+      <c r="J296" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
@@ -8721,28 +8733,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="s" s="2">
+      <c r="A298" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B298" t="s" s="2">
+      <c r="B298" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C298" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D298" t="s" s="2">
+      <c r="C298" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E298" t="s" s="2">
+      <c r="E298" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F298" t="s" s="2">
+      <c r="F298" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G298" t="s" s="2">
+      <c r="G298" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H298" t="s" s="2">
+      <c r="H298" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8767,28 +8779,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="B300" t="s" s="2">
+      <c r="B300" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C300" t="s" s="2">
+      <c r="C300" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D300" t="s" s="2">
+      <c r="D300" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E300" t="s" s="2">
+      <c r="E300" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F300" t="s" s="2">
+      <c r="F300" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G300" t="s" s="2">
+      <c r="G300" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H300" t="s" s="2">
+      <c r="H300" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I300" t="s" s="2">
+      <c r="I300" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8847,10 +8859,10 @@
       <c r="I302">
         <f>((C302-C301)^2+(D302- D301)^2)^.5</f>
       </c>
-      <c r="J302" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K302" s="2" t="s">
+      <c r="J302" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K302" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L302" t="n">
@@ -8894,28 +8906,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="2">
+      <c r="A304" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C304" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D304" t="s" s="2">
+      <c r="C304" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8940,28 +8952,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C306" t="s" s="2">
+      <c r="C306" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D306" t="s" s="2">
+      <c r="D306" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I306" t="s" s="2">
+      <c r="I306" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9020,10 +9032,10 @@
       <c r="I308">
         <f>((C308-C307)^2+(D308- D307)^2)^.5</f>
       </c>
-      <c r="J308" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K308" s="2" t="s">
+      <c r="J308" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K308" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L308" t="n">
@@ -9067,28 +9079,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s" s="2">
+      <c r="A310" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B310" t="s" s="2">
+      <c r="B310" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C310" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D310" t="s" s="2">
+      <c r="C310" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E310" t="s" s="2">
+      <c r="E310" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F310" t="s" s="2">
+      <c r="F310" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G310" t="s" s="2">
+      <c r="G310" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H310" t="s" s="2">
+      <c r="H310" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9113,28 +9125,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="B312" t="s" s="2">
+      <c r="B312" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C312" t="s" s="2">
+      <c r="C312" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D312" t="s" s="2">
+      <c r="D312" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E312" t="s" s="2">
+      <c r="E312" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F312" t="s" s="2">
+      <c r="F312" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G312" t="s" s="2">
+      <c r="G312" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H312" t="s" s="2">
+      <c r="H312" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I312" t="s" s="2">
+      <c r="I312" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9251,10 +9263,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="2" t="s">
+      <c r="J316" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
